--- a/artfynd/A 62621-2025 artfynd.xlsx
+++ b/artfynd/A 62621-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130894781</v>
       </c>
       <c r="B2" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         <v>130894756</v>
       </c>
       <c r="B3" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         <v>130894761</v>
       </c>
       <c r="B4" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>130894783</v>
       </c>
       <c r="B5" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>130894776</v>
       </c>
       <c r="B6" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>130894778</v>
       </c>
       <c r="B7" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>130894777</v>
       </c>
       <c r="B8" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>130894770</v>
       </c>
       <c r="B9" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1566,10 +1566,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130894760</v>
+        <v>130894767</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1577,21 +1577,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>406786</v>
+        <v>407194</v>
       </c>
       <c r="R10" t="n">
-        <v>7010890</v>
+        <v>7011100</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1631,22 +1631,27 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>12:26</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1673,10 +1678,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130894767</v>
+        <v>130894760</v>
       </c>
       <c r="B11" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1684,21 +1689,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1708,10 +1713,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>407194</v>
+        <v>406786</v>
       </c>
       <c r="R11" t="n">
-        <v>7011100</v>
+        <v>7010890</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1738,27 +1743,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:26</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1785,10 +1785,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130894782</v>
+        <v>130894766</v>
       </c>
       <c r="B12" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1820,10 +1820,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>407192</v>
+        <v>407194</v>
       </c>
       <c r="R12" t="n">
-        <v>7011093</v>
+        <v>7011099</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1850,22 +1850,22 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -1897,10 +1897,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130894766</v>
+        <v>130894782</v>
       </c>
       <c r="B13" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1932,10 +1932,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>407194</v>
+        <v>407192</v>
       </c>
       <c r="R13" t="n">
-        <v>7011099</v>
+        <v>7011093</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1962,22 +1962,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -2012,7 +2012,7 @@
         <v>130894780</v>
       </c>
       <c r="B14" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>130894769</v>
       </c>
       <c r="B15" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>

--- a/artfynd/A 62621-2025 artfynd.xlsx
+++ b/artfynd/A 62621-2025 artfynd.xlsx
@@ -1566,10 +1566,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130894767</v>
+        <v>130894760</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1577,21 +1577,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>407194</v>
+        <v>406786</v>
       </c>
       <c r="R10" t="n">
-        <v>7011100</v>
+        <v>7010890</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1631,27 +1631,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:26</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1678,10 +1673,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130894760</v>
+        <v>130894767</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1689,21 +1684,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1713,10 +1708,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>406786</v>
+        <v>407194</v>
       </c>
       <c r="R11" t="n">
-        <v>7010890</v>
+        <v>7011100</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1743,22 +1738,27 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>12:26</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1785,7 +1785,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130894766</v>
+        <v>130894782</v>
       </c>
       <c r="B12" t="n">
         <v>57884</v>
@@ -1820,10 +1820,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>407194</v>
+        <v>407192</v>
       </c>
       <c r="R12" t="n">
-        <v>7011099</v>
+        <v>7011093</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1850,22 +1850,22 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>15:03</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -1897,7 +1897,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130894782</v>
+        <v>130894766</v>
       </c>
       <c r="B13" t="n">
         <v>57884</v>
@@ -1932,10 +1932,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>407192</v>
+        <v>407194</v>
       </c>
       <c r="R13" t="n">
-        <v>7011093</v>
+        <v>7011099</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1962,22 +1962,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>15:03</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">

--- a/artfynd/A 62621-2025 artfynd.xlsx
+++ b/artfynd/A 62621-2025 artfynd.xlsx
@@ -1566,10 +1566,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130894760</v>
+        <v>130894767</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1577,21 +1577,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>406786</v>
+        <v>407194</v>
       </c>
       <c r="R10" t="n">
-        <v>7010890</v>
+        <v>7011100</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1631,22 +1631,27 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>12:26</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1673,10 +1678,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130894767</v>
+        <v>130894760</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1684,21 +1689,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1708,10 +1713,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>407194</v>
+        <v>406786</v>
       </c>
       <c r="R11" t="n">
-        <v>7011100</v>
+        <v>7010890</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1738,27 +1743,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:26</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AD11" t="b">

--- a/artfynd/A 62621-2025 artfynd.xlsx
+++ b/artfynd/A 62621-2025 artfynd.xlsx
@@ -1566,10 +1566,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130894767</v>
+        <v>130894760</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1577,21 +1577,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>407194</v>
+        <v>406786</v>
       </c>
       <c r="R10" t="n">
-        <v>7011100</v>
+        <v>7010890</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1631,27 +1631,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:26</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1678,10 +1673,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130894760</v>
+        <v>130894767</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1689,21 +1684,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1713,10 +1708,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>406786</v>
+        <v>407194</v>
       </c>
       <c r="R11" t="n">
-        <v>7010890</v>
+        <v>7011100</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1743,22 +1738,27 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>12:26</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">

--- a/artfynd/A 62621-2025 artfynd.xlsx
+++ b/artfynd/A 62621-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY15"/>
+  <dimension ref="A1:AY17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1566,10 +1566,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130894760</v>
+        <v>130894767</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1577,21 +1577,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>406786</v>
+        <v>407194</v>
       </c>
       <c r="R10" t="n">
-        <v>7010890</v>
+        <v>7011100</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1631,22 +1631,27 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>12:26</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1673,10 +1678,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130894767</v>
+        <v>130894760</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1684,21 +1689,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1708,10 +1713,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>407194</v>
+        <v>406786</v>
       </c>
       <c r="R11" t="n">
-        <v>7011100</v>
+        <v>7010890</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1738,27 +1743,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>12:26</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2217,6 +2217,241 @@
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>131200971</v>
+      </c>
+      <c r="B16" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Sjöändan, Lakanäset, Undersåker, Jmt</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>407157</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7011090</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Undersåker</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>11:20</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Ringhack.</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Filip Aguirre</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Filip Aguirre</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>131200961</v>
+      </c>
+      <c r="B17" t="n">
+        <v>57988</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>103031</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Lavskrika</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Perisoreus infaustus</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Sjöändan, Lakanäset, Undersåker, Jmt</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>407157</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7011090</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Undersåker</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>11:20</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Filip Aguirre</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Filip Aguirre</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 62621-2025 artfynd.xlsx
+++ b/artfynd/A 62621-2025 artfynd.xlsx
@@ -795,7 +795,7 @@
         <v>130894756</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         <v>130894761</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1566,10 +1566,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130894767</v>
+        <v>130894760</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1577,21 +1577,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>407194</v>
+        <v>406786</v>
       </c>
       <c r="R10" t="n">
-        <v>7011100</v>
+        <v>7010890</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1631,27 +1631,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:26</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
+          <t>14:31</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1678,10 +1673,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130894760</v>
+        <v>130894767</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1689,21 +1684,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1713,10 +1708,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>406786</v>
+        <v>407194</v>
       </c>
       <c r="R11" t="n">
-        <v>7010890</v>
+        <v>7011100</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1743,22 +1738,27 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>12:26</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:31</t>
+          <t>12:26</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2012,7 +2012,7 @@
         <v>130894780</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>130894769</v>
       </c>
       <c r="B15" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
